--- a/output/zamienie/2023/sheets/year_2023.xlsx
+++ b/output/zamienie/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.07741935483871</v>
+        <v>35.51648568899816</v>
       </c>
       <c r="C2" t="n">
-        <v>9.425806451612903</v>
+        <v>42.41912193914348</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.621428571428572</v>
+        <v>37.66750077844529</v>
       </c>
       <c r="C3" t="n">
-        <v>11.33571428571429</v>
+        <v>41.61988791933908</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.42903225806452</v>
+        <v>36.64423289819113</v>
       </c>
       <c r="C4" t="n">
-        <v>16.95161290322581</v>
+        <v>40.31752117413598</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.07</v>
+        <v>39.47127637734123</v>
       </c>
       <c r="C5" t="n">
-        <v>23.09666666666667</v>
+        <v>40.71370379103076</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.61290322580646</v>
+        <v>40.49138808978778</v>
       </c>
       <c r="C6" t="n">
-        <v>24.19354838709678</v>
+        <v>42.20476528854313</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.93666666666667</v>
+        <v>40.48296029606202</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66</v>
+        <v>41.53730930208769</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.519354838709678</v>
+        <v>29.57979753988585</v>
       </c>
       <c r="C8" t="n">
-        <v>9.625806451612902</v>
+        <v>36.06371854955989</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2258064516129</v>
+        <v>37.12421368417945</v>
       </c>
       <c r="C9" t="n">
-        <v>21.43225806451613</v>
+        <v>40.8312177189871</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.09666666666667</v>
+        <v>38.1728061783724</v>
       </c>
       <c r="C10" t="n">
-        <v>23.74666666666667</v>
+        <v>41.24427665783838</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.41935483870968</v>
+        <v>39.83596557185732</v>
       </c>
       <c r="C11" t="n">
-        <v>8.929032258064517</v>
+        <v>40.82050971624668</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.53333333333333</v>
+        <v>41.89119763299289</v>
       </c>
       <c r="C12" t="n">
-        <v>21.47666666666667</v>
+        <v>42.69135618924655</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.07741935483871</v>
+        <v>39.30629863276361</v>
       </c>
       <c r="C13" t="n">
-        <v>14.80967741935484</v>
+        <v>39.29034052409169</v>
       </c>
     </row>
   </sheetData>
